--- a/Incomes.xlsx
+++ b/Incomes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politechnikawroclawska-my.sharepoint.com/personal/282223_student_pwr_edu_pl/Documents/Desktop/Programowanie/AllGitHubRepositories/Income and expense analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="8_{3C6717C2-9BD0-4DCE-B7CD-6358C9AFF513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC43D1AF-845E-4D81-8AF6-027D0CD440B0}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="8_{3C6717C2-9BD0-4DCE-B7CD-6358C9AFF513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E08EE7C-FDBC-443F-BD0E-EBAE4E8904B9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0DB74CF-37C8-4113-AD40-E6C9332CEB9D}"/>
   </bookViews>
@@ -134,6 +134,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,7 +481,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Incomes.xlsx
+++ b/Incomes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politechnikawroclawska-my.sharepoint.com/personal/282223_student_pwr_edu_pl/Documents/Desktop/Programowanie/AllGitHubRepositories/Income and expense analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawel\OneDrive - Politechnika Wroclawska\Desktop\Programowanie\AllGitHubRepositories\Income and expense analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{3C6717C2-9BD0-4DCE-B7CD-6358C9AFF513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E08EE7C-FDBC-443F-BD0E-EBAE4E8904B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627FF633-B925-462A-AC5C-136B535FD036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0DB74CF-37C8-4113-AD40-E6C9332CEB9D}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="12">
-  <si>
-    <t>Przelew od rodziców</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="11">
   <si>
     <t>Income category</t>
   </si>
@@ -50,16 +47,7 @@
     <t>Income date</t>
   </si>
   <si>
-    <t>Private tutoring salary</t>
-  </si>
-  <si>
-    <t>Transfer from parents</t>
-  </si>
-  <si>
     <t>Tax refund</t>
-  </si>
-  <si>
-    <t>Work salary</t>
   </si>
   <si>
     <t>Security deposit refund</t>
@@ -68,10 +56,19 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Academic scholarship</t>
+    <t>Private tutoring</t>
   </si>
   <si>
-    <t>Transfer from grandparents</t>
+    <t>Parents transfer</t>
+  </si>
+  <si>
+    <t>Scholarship</t>
+  </si>
+  <si>
+    <t>Grandparents transfer</t>
+  </si>
+  <si>
+    <t>Work salary</t>
   </si>
 </sst>
 </file>
@@ -119,7 +116,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
@@ -136,20 +136,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6B48AB2-A6DD-4987-B1A7-3B44B0E9248C}" name="Table7" displayName="Table7" ref="A1:C92" totalsRowShown="0">
   <autoFilter ref="A1:C92" xr:uid="{A6B48AB2-A6DD-4987-B1A7-3B44B0E9248C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C89">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B89">
     <sortCondition ref="A1:A89"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{966FBFDF-55AC-422F-A82E-A14B9F5A1896}" name="Income date"/>
-    <tableColumn id="3" xr3:uid="{8E66328C-5F57-4343-8328-7F936974F831}" name="Income amount" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{BCEEE1BA-28D0-4DD0-AF7E-7F1BB437984E}" name="Income category"/>
+    <tableColumn id="3" xr3:uid="{8E66328C-5F57-4343-8328-7F936974F831}" name="Income amount" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9E2437AE-302E-4C7C-886C-B2261682BD44}" name="Income category" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -474,26 +470,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1961AD35-64CA-47EB-87C1-33C307D06AD9}">
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -504,7 +500,7 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -515,7 +511,7 @@
         <v>400</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -526,7 +522,7 @@
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -537,7 +533,7 @@
         <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -548,7 +544,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -559,7 +555,7 @@
         <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -570,7 +566,7 @@
         <v>440</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -581,7 +577,7 @@
         <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -592,7 +588,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -603,7 +599,7 @@
         <v>350</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -614,7 +610,7 @@
         <v>230</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -625,7 +621,7 @@
         <v>440</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -636,7 +632,7 @@
         <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -647,7 +643,7 @@
         <v>300</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -658,7 +654,7 @@
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -669,7 +665,7 @@
         <v>350</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -680,7 +676,7 @@
         <v>166.5</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -691,7 +687,7 @@
         <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -702,7 +698,7 @@
         <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -713,7 +709,7 @@
         <v>440</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -724,7 +720,7 @@
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -735,7 +731,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -746,7 +742,7 @@
         <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -757,7 +753,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -768,7 +764,7 @@
         <v>280</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -779,7 +775,7 @@
         <v>300</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -790,7 +786,7 @@
         <v>200</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -801,7 +797,7 @@
         <v>440</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -812,7 +808,7 @@
         <v>150</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -823,7 +819,7 @@
         <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -834,7 +830,7 @@
         <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -845,7 +841,7 @@
         <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -856,7 +852,7 @@
         <v>200</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -867,7 +863,7 @@
         <v>200</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -878,7 +874,7 @@
         <v>500</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -889,7 +885,7 @@
         <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -900,7 +896,7 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -912,7 +908,7 @@
         <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -923,7 +919,7 @@
         <v>440</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -934,7 +930,7 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -945,7 +941,7 @@
         <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -956,7 +952,7 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -967,7 +963,7 @@
         <v>50</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -978,7 +974,7 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -989,7 +985,7 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1000,7 +996,7 @@
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1011,7 +1007,7 @@
         <v>50</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1022,7 +1018,7 @@
         <v>440</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1033,7 +1029,7 @@
         <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1044,7 +1040,7 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1055,7 +1051,7 @@
         <v>32</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1067,7 +1063,7 @@
         <v>485</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1078,7 +1074,7 @@
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1089,7 +1085,7 @@
         <v>32</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1100,7 +1096,7 @@
         <v>1220.3800000000001</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1111,7 +1107,7 @@
         <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1122,7 +1118,7 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1133,7 +1129,7 @@
         <v>800</v>
       </c>
       <c r="C59" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1144,7 +1140,7 @@
         <v>400</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1155,7 +1151,7 @@
         <v>300</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1166,7 +1162,7 @@
         <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1177,7 +1173,7 @@
         <v>800</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1188,7 +1184,7 @@
         <v>3462.25</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1199,7 +1195,7 @@
         <v>45</v>
       </c>
       <c r="C65" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1210,7 +1206,7 @@
         <v>700</v>
       </c>
       <c r="C66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1221,7 +1217,7 @@
         <v>50</v>
       </c>
       <c r="C67" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1232,7 +1228,7 @@
         <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1243,7 +1239,7 @@
         <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1254,7 +1250,7 @@
         <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1265,7 +1261,7 @@
         <v>1664.93</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1276,7 +1272,7 @@
         <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1287,7 +1283,7 @@
         <v>200</v>
       </c>
       <c r="C73" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1298,7 +1294,7 @@
         <v>300</v>
       </c>
       <c r="C74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1309,7 +1305,7 @@
         <v>180</v>
       </c>
       <c r="C75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1320,7 +1316,7 @@
         <v>576.04999999999995</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1331,7 +1327,7 @@
         <v>300</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1342,7 +1338,7 @@
         <v>505</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1353,7 +1349,7 @@
         <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1364,7 +1360,7 @@
         <v>646</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1375,7 +1371,7 @@
         <v>150</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1386,7 +1382,7 @@
         <v>200</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1397,7 +1393,7 @@
         <v>3225</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1408,7 +1404,7 @@
         <v>500</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1419,7 +1415,7 @@
         <v>1075</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1430,7 +1426,7 @@
         <v>200</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1441,7 +1437,7 @@
         <v>300</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -1452,7 +1448,7 @@
         <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -1463,7 +1459,7 @@
         <v>1075</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -1474,7 +1470,7 @@
         <v>200</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -1485,7 +1481,7 @@
         <v>360</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -1496,7 +1492,7 @@
         <v>250</v>
       </c>
       <c r="C92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Incomes.xlsx
+++ b/Incomes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawel\OneDrive - Politechnika Wroclawska\Desktop\Programowanie\AllGitHubRepositories\Income and expense analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627FF633-B925-462A-AC5C-136B535FD036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF22D41B-7182-48C0-9249-5BA9BB5B5852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0DB74CF-37C8-4113-AD40-E6C9332CEB9D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="11">
   <si>
     <t>Income category</t>
   </si>
@@ -137,8 +137,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6B48AB2-A6DD-4987-B1A7-3B44B0E9248C}" name="Table7" displayName="Table7" ref="A1:C92" totalsRowShown="0">
-  <autoFilter ref="A1:C92" xr:uid="{A6B48AB2-A6DD-4987-B1A7-3B44B0E9248C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6B48AB2-A6DD-4987-B1A7-3B44B0E9248C}" name="Table7" displayName="Table7" ref="A1:C93" totalsRowShown="0">
+  <autoFilter ref="A1:C93" xr:uid="{A6B48AB2-A6DD-4987-B1A7-3B44B0E9248C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B89">
     <sortCondition ref="A1:A89"/>
   </sortState>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1961AD35-64CA-47EB-87C1-33C307D06AD9}">
-  <dimension ref="A1:C92"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1495,6 +1495,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>45711</v>
+      </c>
+      <c r="B93" s="2">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Incomes.xlsx
+++ b/Incomes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawel\OneDrive - Politechnika Wroclawska\Desktop\Programowanie\AllGitHubRepositories\Income and expense analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawel\OneDrive - Politechnika Wroclawska\Desktop\Programowanie\AllGitHubRepositories\Income-and-expense-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF22D41B-7182-48C0-9249-5BA9BB5B5852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B807220-E01E-4269-B219-6708B862902D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F0DB74CF-37C8-4113-AD40-E6C9332CEB9D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="11">
   <si>
     <t>Income category</t>
   </si>
@@ -137,8 +137,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6B48AB2-A6DD-4987-B1A7-3B44B0E9248C}" name="Table7" displayName="Table7" ref="A1:C93" totalsRowShown="0">
-  <autoFilter ref="A1:C93" xr:uid="{A6B48AB2-A6DD-4987-B1A7-3B44B0E9248C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A6B48AB2-A6DD-4987-B1A7-3B44B0E9248C}" name="Table7" displayName="Table7" ref="A1:C94" totalsRowShown="0">
+  <autoFilter ref="A1:C94" xr:uid="{A6B48AB2-A6DD-4987-B1A7-3B44B0E9248C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B89">
     <sortCondition ref="A1:A89"/>
   </sortState>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1961AD35-64CA-47EB-87C1-33C307D06AD9}">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1506,6 +1506,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>45715</v>
+      </c>
+      <c r="B94" s="2">
+        <v>150</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
